--- a/Doc/年终总结数据统计脚本/26-30商户充值统计.xlsx
+++ b/Doc/年终总结数据统计脚本/26-30商户充值统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="110">
   <si>
     <t>月份</t>
   </si>
@@ -70,167 +70,294 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值次数</t>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>本溪市</t>
+  </si>
+  <si>
+    <t>滨州市</t>
+  </si>
+  <si>
+    <t>长春市</t>
+  </si>
+  <si>
+    <t>成都市</t>
+  </si>
+  <si>
+    <t>达州市</t>
+  </si>
+  <si>
+    <t>大连市</t>
+  </si>
+  <si>
+    <t>东营市</t>
+  </si>
+  <si>
+    <t>赣州市</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
+    <t>合肥市</t>
+  </si>
+  <si>
+    <t>菏泽市</t>
+  </si>
+  <si>
+    <t>衡阳市</t>
+  </si>
+  <si>
+    <t>黄石市</t>
+  </si>
+  <si>
+    <t>吉林市</t>
+  </si>
+  <si>
+    <t>济南市</t>
+  </si>
+  <si>
+    <t>济宁市</t>
+  </si>
+  <si>
+    <t>景德镇市</t>
+  </si>
+  <si>
+    <t>昆明市</t>
+  </si>
+  <si>
+    <t>廊坊市</t>
+  </si>
+  <si>
+    <t>聊城市</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>六安市</t>
+  </si>
+  <si>
+    <t>南昌市</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>宁德市</t>
+  </si>
+  <si>
+    <t>青岛市</t>
+  </si>
+  <si>
+    <t>日照市</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>深圳市</t>
+  </si>
+  <si>
+    <t>沈阳市</t>
+  </si>
+  <si>
+    <t>太原市</t>
+  </si>
+  <si>
+    <t>泰安市</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>潍坊市</t>
+  </si>
+  <si>
+    <t>烟台市</t>
+  </si>
+  <si>
+    <t>郑州市</t>
+  </si>
+  <si>
+    <t>周口市</t>
+  </si>
+  <si>
+    <t>株洲市</t>
+  </si>
+  <si>
+    <t>淄博市</t>
+  </si>
+  <si>
+    <t>德州市</t>
+  </si>
+  <si>
+    <t>邯郸市</t>
+  </si>
+  <si>
+    <t>商丘市</t>
+  </si>
+  <si>
+    <t>石家庄市</t>
+  </si>
+  <si>
+    <t>酒泉市</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>福州市</t>
+  </si>
+  <si>
+    <t>宿迁市</t>
+  </si>
+  <si>
+    <t>北京城区</t>
+  </si>
+  <si>
+    <t>唐山市</t>
+  </si>
+  <si>
+    <t>徐州市</t>
+  </si>
+  <si>
+    <t>2015年度各城市商家充值数据总览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>本溪市</t>
-  </si>
-  <si>
-    <t>滨州市</t>
-  </si>
-  <si>
-    <t>长春市</t>
-  </si>
-  <si>
-    <t>成都市</t>
-  </si>
-  <si>
-    <t>达州市</t>
-  </si>
-  <si>
-    <t>大连市</t>
-  </si>
-  <si>
-    <t>东营市</t>
-  </si>
-  <si>
-    <t>赣州市</t>
-  </si>
-  <si>
-    <t>广州市</t>
-  </si>
-  <si>
-    <t>合肥市</t>
-  </si>
-  <si>
-    <t>菏泽市</t>
-  </si>
-  <si>
-    <t>衡阳市</t>
-  </si>
-  <si>
-    <t>黄石市</t>
-  </si>
-  <si>
-    <t>吉林市</t>
-  </si>
-  <si>
-    <t>济南市</t>
-  </si>
-  <si>
-    <t>济宁市</t>
-  </si>
-  <si>
-    <t>景德镇市</t>
-  </si>
-  <si>
-    <t>昆明市</t>
-  </si>
-  <si>
-    <t>廊坊市</t>
-  </si>
-  <si>
-    <t>聊城市</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>六安市</t>
-  </si>
-  <si>
-    <t>南昌市</t>
-  </si>
-  <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>宁德市</t>
-  </si>
-  <si>
-    <t>青岛市</t>
-  </si>
-  <si>
-    <t>日照市</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>深圳市</t>
-  </si>
-  <si>
-    <t>沈阳市</t>
-  </si>
-  <si>
-    <t>太原市</t>
-  </si>
-  <si>
-    <t>泰安市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>潍坊市</t>
-  </si>
-  <si>
-    <t>烟台市</t>
-  </si>
-  <si>
-    <t>郑州市</t>
-  </si>
-  <si>
-    <t>周口市</t>
-  </si>
-  <si>
-    <t>株洲市</t>
-  </si>
-  <si>
-    <t>淄博市</t>
-  </si>
-  <si>
-    <t>德州市</t>
-  </si>
-  <si>
-    <t>邯郸市</t>
-  </si>
-  <si>
-    <t>商丘市</t>
-  </si>
-  <si>
-    <t>石家庄市</t>
-  </si>
-  <si>
-    <t>酒泉市</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>福州市</t>
-  </si>
-  <si>
-    <t>宿迁市</t>
-  </si>
-  <si>
-    <t>北京城区</t>
-  </si>
-  <si>
-    <t>唐山市</t>
-  </si>
-  <si>
-    <t>徐州市</t>
-  </si>
-  <si>
-    <t>2015年度各城市商家充值数据总览</t>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值总额/总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29336.40元/1218次</t>
+  </si>
+  <si>
+    <t>203697.52元/514次</t>
+  </si>
+  <si>
+    <t>2044827.13元/2782次</t>
+  </si>
+  <si>
+    <t>3034694.56元/4302次</t>
+  </si>
+  <si>
+    <t>97475.85元/162次</t>
+  </si>
+  <si>
+    <t>184454.93元/273次</t>
+  </si>
+  <si>
+    <t>181555.40元/262次</t>
+  </si>
+  <si>
+    <t>6325.14元/46次</t>
+  </si>
+  <si>
+    <t>20192.24元/119次</t>
+  </si>
+  <si>
+    <t>13111.70元/95次</t>
+  </si>
+  <si>
+    <t>10165.18元/105次</t>
+  </si>
+  <si>
+    <t>0元/0次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3347.00元/10次</t>
+  </si>
+  <si>
+    <t>81713.00元/14次</t>
+  </si>
+  <si>
+    <t>52595.00元/17次</t>
+  </si>
+  <si>
+    <t>34134.00元/53次</t>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102.00元/3次</t>
+  </si>
+  <si>
+    <t>13952.68元/49次</t>
+  </si>
+  <si>
+    <t>77142.87元/349次</t>
+  </si>
+  <si>
+    <t>452658.70元/2036次</t>
+  </si>
+  <si>
+    <t>539302.00元/2239次</t>
+  </si>
+  <si>
+    <t>10111.00元/6次</t>
+  </si>
+  <si>
+    <t>21.00元/2次</t>
+  </si>
+  <si>
+    <t>43289.08元/1267次</t>
+  </si>
+  <si>
+    <t>280840.39元/863次</t>
+  </si>
+  <si>
+    <t>2497485.83元/4818次</t>
+  </si>
+  <si>
+    <t>3583668.70元/6597次</t>
+  </si>
+  <si>
+    <t>209492.09元/301次</t>
+  </si>
+  <si>
+    <t>250161.63元/385次</t>
+  </si>
+  <si>
+    <t>225875.58元/422次</t>
+  </si>
+  <si>
+    <t>102.00元/3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7127218.35元/14750次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,351 +714,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="46.875" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1218</v>
-      </c>
-      <c r="C3">
-        <v>29336.400000000001</v>
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>514</v>
-      </c>
-      <c r="C4">
-        <v>203697.52</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>2782</v>
-      </c>
-      <c r="C5">
-        <v>2044827.13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>4302</v>
-      </c>
-      <c r="C6">
-        <v>3034694.56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>162</v>
-      </c>
-      <c r="C7">
-        <v>97475.85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>273</v>
-      </c>
-      <c r="C8">
-        <v>184454.93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>262</v>
-      </c>
-      <c r="C9">
-        <v>181555.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>46</v>
-      </c>
-      <c r="C10">
-        <v>6325.14</v>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>119</v>
-      </c>
-      <c r="C11">
-        <v>20192.240000000002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>95</v>
-      </c>
-      <c r="C12">
-        <v>13111.7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>105</v>
-      </c>
-      <c r="C13">
-        <v>10165.18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>3347</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>81713</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>52595</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>53</v>
-      </c>
-      <c r="C17">
-        <v>34134</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>49</v>
-      </c>
-      <c r="C19">
-        <v>13952.68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>349</v>
-      </c>
-      <c r="C20">
-        <v>77142.87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2036</v>
-      </c>
-      <c r="C21">
-        <v>452658.7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>2239</v>
-      </c>
-      <c r="C22">
-        <v>539302</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>10111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -943,15 +943,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -988,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1141,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1175,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1192,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1226,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1328,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1345,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1379,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1396,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1481,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1498,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1549,7 +1549,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1600,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1634,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1651,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1685,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1736,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1753,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1770,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1804,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1821,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1855,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1906,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1940,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1974,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2008,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2025,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2042,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2110,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2144,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2178,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2246,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2263,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2280,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2314,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2348,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2365,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2399,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2416,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2433,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2450,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2484,7 +2484,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2501,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2518,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2535,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2552,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2569,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2586,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2603,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2620,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2637,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2671,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2688,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2705,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2722,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2739,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2756,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2790,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2807,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2824,7 +2824,7 @@
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2841,7 +2841,7 @@
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2858,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2875,7 +2875,7 @@
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2892,7 +2892,7 @@
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2909,7 +2909,7 @@
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2926,7 +2926,7 @@
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2960,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2977,7 +2977,7 @@
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3011,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3028,7 +3028,7 @@
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3045,7 +3045,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3062,7 +3062,7 @@
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3079,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3096,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3113,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3130,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3147,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3181,7 +3181,7 @@
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3198,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3215,7 +3215,7 @@
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3232,7 +3232,7 @@
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3249,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3266,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3283,7 +3283,7 @@
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3300,7 +3300,7 @@
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3317,7 +3317,7 @@
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3334,7 +3334,7 @@
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3351,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3368,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
